--- a/Code/Results/Cases/Case_3_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006174373627422</v>
+        <v>1.050604470900816</v>
       </c>
       <c r="D2">
-        <v>1.022517198942839</v>
+        <v>1.048474413138584</v>
       </c>
       <c r="E2">
-        <v>1.019614861014216</v>
+        <v>1.057472712464939</v>
       </c>
       <c r="F2">
-        <v>1.027407073716797</v>
+        <v>1.067958870205128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049045065083059</v>
+        <v>1.041637422615276</v>
       </c>
       <c r="J2">
-        <v>1.028171965623194</v>
+        <v>1.055636745905366</v>
       </c>
       <c r="K2">
-        <v>1.033671499325109</v>
+        <v>1.051234156994763</v>
       </c>
       <c r="L2">
-        <v>1.03080752925293</v>
+        <v>1.060207587508129</v>
       </c>
       <c r="M2">
-        <v>1.038497345719121</v>
+        <v>1.070665336545642</v>
       </c>
       <c r="N2">
-        <v>1.029632087747352</v>
+        <v>1.057135871167779</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014010447246034</v>
+        <v>1.052138308300811</v>
       </c>
       <c r="D3">
-        <v>1.028327983783789</v>
+        <v>1.049606069174046</v>
       </c>
       <c r="E3">
-        <v>1.026429500805705</v>
+        <v>1.058852907697562</v>
       </c>
       <c r="F3">
-        <v>1.034723569345039</v>
+        <v>1.06945484357063</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051708535902342</v>
+        <v>1.042041416855515</v>
       </c>
       <c r="J3">
-        <v>1.034126325784124</v>
+        <v>1.056817480259296</v>
       </c>
       <c r="K3">
-        <v>1.038610792246138</v>
+        <v>1.052177038821531</v>
       </c>
       <c r="L3">
-        <v>1.036735020724858</v>
+        <v>1.061400187677058</v>
       </c>
       <c r="M3">
-        <v>1.04493062700441</v>
+        <v>1.071975505140764</v>
       </c>
       <c r="N3">
-        <v>1.035594903782685</v>
+        <v>1.058318282299923</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018922929608574</v>
+        <v>1.053129150234697</v>
       </c>
       <c r="D4">
-        <v>1.031972265711827</v>
+        <v>1.050336659446395</v>
       </c>
       <c r="E4">
-        <v>1.030707674889263</v>
+        <v>1.059744684826229</v>
       </c>
       <c r="F4">
-        <v>1.03931852291893</v>
+        <v>1.070421675341599</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053362917401507</v>
+        <v>1.042300451611387</v>
       </c>
       <c r="J4">
-        <v>1.037854665871185</v>
+        <v>1.057579457470416</v>
       </c>
       <c r="K4">
-        <v>1.04169953971859</v>
+        <v>1.052784900788185</v>
       </c>
       <c r="L4">
-        <v>1.040449090278455</v>
+        <v>1.062170048398261</v>
       </c>
       <c r="M4">
-        <v>1.048964483039698</v>
+        <v>1.072821598403503</v>
       </c>
       <c r="N4">
-        <v>1.039328538540316</v>
+        <v>1.059081341606083</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02095252136767</v>
+        <v>1.053545312681335</v>
       </c>
       <c r="D5">
-        <v>1.033478126673176</v>
+        <v>1.050643405715632</v>
       </c>
       <c r="E5">
-        <v>1.032476552987621</v>
+        <v>1.060119283027848</v>
       </c>
       <c r="F5">
-        <v>1.041218796092267</v>
+        <v>1.070827860162511</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054042664674435</v>
+        <v>1.042408783322482</v>
       </c>
       <c r="J5">
-        <v>1.039393881422698</v>
+        <v>1.057899311260153</v>
       </c>
       <c r="K5">
-        <v>1.04297371214437</v>
+        <v>1.053039913228749</v>
       </c>
       <c r="L5">
-        <v>1.04198301737776</v>
+        <v>1.06249326555715</v>
       </c>
       <c r="M5">
-        <v>1.050631168202749</v>
+        <v>1.073176901933544</v>
       </c>
       <c r="N5">
-        <v>1.040869939954463</v>
+        <v>1.05940164962489</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021291270742246</v>
+        <v>1.053615165705184</v>
       </c>
       <c r="D6">
-        <v>1.033729472478363</v>
+        <v>1.050694886816022</v>
       </c>
       <c r="E6">
-        <v>1.032771864666804</v>
+        <v>1.060182162027686</v>
       </c>
       <c r="F6">
-        <v>1.041536068705239</v>
+        <v>1.070896044682392</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054155894762424</v>
+        <v>1.04242693954429</v>
       </c>
       <c r="J6">
-        <v>1.039650714951133</v>
+        <v>1.057952988067014</v>
       </c>
       <c r="K6">
-        <v>1.043186261308103</v>
+        <v>1.053082699841102</v>
       </c>
       <c r="L6">
-        <v>1.042239003690702</v>
+        <v>1.062547509968367</v>
       </c>
       <c r="M6">
-        <v>1.050909349782977</v>
+        <v>1.073236536040137</v>
       </c>
       <c r="N6">
-        <v>1.041127138215967</v>
+        <v>1.059455402658973</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018950186287428</v>
+        <v>1.053134712530007</v>
       </c>
       <c r="D7">
-        <v>1.031992488140866</v>
+        <v>1.05034075974638</v>
       </c>
       <c r="E7">
-        <v>1.030731425053458</v>
+        <v>1.059749691415552</v>
       </c>
       <c r="F7">
-        <v>1.039344035623171</v>
+        <v>1.070427103860039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053372061142867</v>
+        <v>1.042301901367975</v>
       </c>
       <c r="J7">
-        <v>1.037875341612289</v>
+        <v>1.057583733256458</v>
       </c>
       <c r="K7">
-        <v>1.04171665919952</v>
+        <v>1.052788310364166</v>
       </c>
       <c r="L7">
-        <v>1.040469692605188</v>
+        <v>1.062174368932786</v>
       </c>
       <c r="M7">
-        <v>1.048986865744802</v>
+        <v>1.072826347527042</v>
       </c>
       <c r="N7">
-        <v>1.039349243643344</v>
+        <v>1.059085623464232</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008856713982232</v>
+        <v>1.051123185814208</v>
       </c>
       <c r="D8">
-        <v>1.024505879512415</v>
+        <v>1.048857209848753</v>
       </c>
       <c r="E8">
-        <v>1.021946220190861</v>
+        <v>1.057939429414015</v>
       </c>
       <c r="F8">
-        <v>1.029909763541804</v>
+        <v>1.068464686553081</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049959988477596</v>
+        <v>1.041774447915589</v>
       </c>
       <c r="J8">
-        <v>1.030211084479219</v>
+        <v>1.056036206099956</v>
       </c>
       <c r="K8">
-        <v>1.035363827306015</v>
+        <v>1.051553276239819</v>
       </c>
       <c r="L8">
-        <v>1.032836900424616</v>
+        <v>1.06061101521409</v>
       </c>
       <c r="M8">
-        <v>1.040699274093187</v>
+        <v>1.071108464601654</v>
       </c>
       <c r="N8">
-        <v>1.031674102386043</v>
+        <v>1.057535898641664</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9897500762435503</v>
+        <v>1.047565580851959</v>
       </c>
       <c r="D9">
-        <v>1.010352442197605</v>
+        <v>1.046230006391515</v>
       </c>
       <c r="E9">
-        <v>1.005370422727015</v>
+        <v>1.054739248530686</v>
       </c>
       <c r="F9">
-        <v>1.012123026036478</v>
+        <v>1.064997426338759</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043379522479087</v>
+        <v>1.040826695685043</v>
       </c>
       <c r="J9">
-        <v>1.015670051234928</v>
+        <v>1.053293386456812</v>
       </c>
       <c r="K9">
-        <v>1.023279761854275</v>
+        <v>1.049359569771282</v>
       </c>
       <c r="L9">
-        <v>1.018376965362934</v>
+        <v>1.057841884269654</v>
       </c>
       <c r="M9">
-        <v>1.025022430644481</v>
+        <v>1.068068224505341</v>
       </c>
       <c r="N9">
-        <v>1.017112419206665</v>
+        <v>1.054789183880021</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9759481152705001</v>
+        <v>1.045184552260619</v>
       </c>
       <c r="D10">
-        <v>1.000151549834192</v>
+        <v>1.044469469187934</v>
       </c>
       <c r="E10">
-        <v>0.993442084362575</v>
+        <v>1.052598468925204</v>
       </c>
       <c r="F10">
-        <v>0.9993322502947375</v>
+        <v>1.062679259884803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038548722880619</v>
+        <v>1.040182392768559</v>
       </c>
       <c r="J10">
-        <v>1.005149606887981</v>
+        <v>1.051453771186619</v>
       </c>
       <c r="K10">
-        <v>1.014518068540964</v>
+        <v>1.047885077785503</v>
       </c>
       <c r="L10">
-        <v>1.007930762173721</v>
+        <v>1.055985792834024</v>
       </c>
       <c r="M10">
-        <v>1.013713571644233</v>
+        <v>1.066032168612211</v>
       </c>
       <c r="N10">
-        <v>1.006577034622033</v>
+        <v>1.052946956145137</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9696722893597277</v>
+        <v>1.044151218971464</v>
       </c>
       <c r="D11">
-        <v>0.9955213412838391</v>
+        <v>1.043704912351548</v>
       </c>
       <c r="E11">
-        <v>0.9880311996011978</v>
+        <v>1.051669655545269</v>
       </c>
       <c r="F11">
-        <v>0.9935321957377733</v>
+        <v>1.061673786938309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036335212804852</v>
+        <v>1.039900409912494</v>
       </c>
       <c r="J11">
-        <v>1.000363521855318</v>
+        <v>1.050654483994146</v>
       </c>
       <c r="K11">
-        <v>1.010528215690561</v>
+        <v>1.047243685578825</v>
       </c>
       <c r="L11">
-        <v>1.003182415657895</v>
+        <v>1.055179624828038</v>
       </c>
       <c r="M11">
-        <v>1.008577124894298</v>
+        <v>1.065148252026069</v>
       </c>
       <c r="N11">
-        <v>1.001784152799652</v>
+        <v>1.052146533873171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9672914607833903</v>
+        <v>1.043767032370145</v>
       </c>
       <c r="D12">
-        <v>0.9937662974246361</v>
+        <v>1.043420580007409</v>
       </c>
       <c r="E12">
-        <v>0.9859806677175807</v>
+        <v>1.051324367971478</v>
       </c>
       <c r="F12">
-        <v>0.9913344815472498</v>
+        <v>1.061300046529486</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035493083315293</v>
+        <v>1.039795215772714</v>
       </c>
       <c r="J12">
-        <v>0.9985476421030254</v>
+        <v>1.050357176565045</v>
       </c>
       <c r="K12">
-        <v>1.009013907803707</v>
+        <v>1.04700499804004</v>
       </c>
       <c r="L12">
-        <v>1.001381476571222</v>
+        <v>1.054879799733294</v>
       </c>
       <c r="M12">
-        <v>1.006629603827623</v>
+        <v>1.06481957376906</v>
       </c>
       <c r="N12">
-        <v>0.9999656942898274</v>
+        <v>1.051848804233419</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9678044892357557</v>
+        <v>1.043849458183593</v>
       </c>
       <c r="D13">
-        <v>0.9941444077757237</v>
+        <v>1.043481585836305</v>
       </c>
       <c r="E13">
-        <v>0.9864224212110353</v>
+        <v>1.051398446354782</v>
       </c>
       <c r="F13">
-        <v>0.9918079296967717</v>
+        <v>1.061380227159465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035674653934128</v>
+        <v>1.039817800829285</v>
       </c>
       <c r="J13">
-        <v>0.9989389402937179</v>
+        <v>1.050420968992868</v>
       </c>
       <c r="K13">
-        <v>1.009340243923646</v>
+        <v>1.047056217604477</v>
       </c>
       <c r="L13">
-        <v>1.001769526692935</v>
+        <v>1.054944130479928</v>
       </c>
       <c r="M13">
-        <v>1.007049210139632</v>
+        <v>1.064890092442986</v>
       </c>
       <c r="N13">
-        <v>1.000357548168833</v>
+        <v>1.051912687253807</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9694765330700433</v>
+        <v>1.044119469402884</v>
       </c>
       <c r="D14">
-        <v>0.9953770062863359</v>
+        <v>1.043681416363434</v>
       </c>
       <c r="E14">
-        <v>0.9878625556647219</v>
+        <v>1.051641119827061</v>
       </c>
       <c r="F14">
-        <v>0.9933514409261108</v>
+        <v>1.061642898855839</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036266019091814</v>
+        <v>1.039891723794402</v>
       </c>
       <c r="J14">
-        <v>1.00021421999194</v>
+        <v>1.050629917012035</v>
       </c>
       <c r="K14">
-        <v>1.010403719390185</v>
+        <v>1.047223964724425</v>
       </c>
       <c r="L14">
-        <v>1.003034329439094</v>
+        <v>1.055154848955595</v>
       </c>
       <c r="M14">
-        <v>1.008416973101273</v>
+        <v>1.065121090612274</v>
       </c>
       <c r="N14">
-        <v>1.001634638910503</v>
+        <v>1.052121932003128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9704999950168939</v>
+        <v>1.044285784135219</v>
       </c>
       <c r="D15">
-        <v>0.9961316874485233</v>
+        <v>1.043804493047723</v>
       </c>
       <c r="E15">
-        <v>0.9887443569633317</v>
+        <v>1.051790600959124</v>
       </c>
       <c r="F15">
-        <v>0.9942965793738818</v>
+        <v>1.061804704442857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036627684193633</v>
+        <v>1.039937210032094</v>
       </c>
       <c r="J15">
-        <v>1.000994799346958</v>
+        <v>1.050758601351302</v>
       </c>
       <c r="K15">
-        <v>1.011054589446421</v>
+        <v>1.047327259989865</v>
       </c>
       <c r="L15">
-        <v>1.00380857860471</v>
+        <v>1.055284629192917</v>
       </c>
       <c r="M15">
-        <v>1.009254330589636</v>
+        <v>1.065263369284467</v>
       </c>
       <c r="N15">
-        <v>1.002416326777739</v>
+        <v>1.052250799088917</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9763579243928588</v>
+        <v>1.045253081180482</v>
       </c>
       <c r="D16">
-        <v>1.000454091367863</v>
+        <v>1.04452016271786</v>
       </c>
       <c r="E16">
-        <v>0.9937956989975544</v>
+        <v>1.052660071706594</v>
       </c>
       <c r="F16">
-        <v>0.9997113397471966</v>
+        <v>1.062745953419749</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03869292626708</v>
+        <v>1.040201043665866</v>
       </c>
       <c r="J16">
-        <v>1.005462099521612</v>
+        <v>1.05150675924917</v>
       </c>
       <c r="K16">
-        <v>1.014778498239501</v>
+        <v>1.047927582676594</v>
       </c>
       <c r="L16">
-        <v>1.008240874797599</v>
+        <v>1.056039242901818</v>
       </c>
       <c r="M16">
-        <v>1.014049114924026</v>
+        <v>1.066090782288176</v>
       </c>
       <c r="N16">
-        <v>1.006889971031047</v>
+        <v>1.053000019456815</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C17">
-        <v>0.979949147999299</v>
+        <v>1.045859209475059</v>
       </c>
       <c r="D17">
-        <v>1.003106262035709</v>
+        <v>1.044968481112859</v>
       </c>
       <c r="E17">
-        <v>0.9968959666282667</v>
+        <v>1.053204968870323</v>
       </c>
       <c r="F17">
-        <v>1.003035183907015</v>
+        <v>1.063335914929201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039954714916635</v>
+        <v>1.040365735375651</v>
       </c>
       <c r="J17">
-        <v>1.008200271009013</v>
+        <v>1.051975324869044</v>
       </c>
       <c r="K17">
-        <v>1.017060045555616</v>
+        <v>1.048303361188105</v>
       </c>
       <c r="L17">
-        <v>1.010958640569962</v>
+        <v>1.056511926008712</v>
       </c>
       <c r="M17">
-        <v>1.016990203825754</v>
+        <v>1.066609177562055</v>
       </c>
       <c r="N17">
-        <v>1.009632031036033</v>
+        <v>1.053469250493614</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9820153039845986</v>
+        <v>1.046212529526468</v>
       </c>
       <c r="D18">
-        <v>1.004632897007809</v>
+        <v>1.045229762674002</v>
       </c>
       <c r="E18">
-        <v>0.9986808606298706</v>
+        <v>1.053522621031686</v>
       </c>
       <c r="F18">
-        <v>1.004948988423499</v>
+        <v>1.063679866885929</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040679071001393</v>
+        <v>1.040461508459696</v>
       </c>
       <c r="J18">
-        <v>1.009775402557472</v>
+        <v>1.052248369191538</v>
       </c>
       <c r="K18">
-        <v>1.018372136946234</v>
+        <v>1.048522264395468</v>
       </c>
       <c r="L18">
-        <v>1.012522403052988</v>
+        <v>1.056787396441926</v>
       </c>
       <c r="M18">
-        <v>1.018682839206471</v>
+        <v>1.06691132826206</v>
       </c>
       <c r="N18">
-        <v>1.011209399451962</v>
+        <v>1.053742682570365</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9827151005101116</v>
+        <v>1.046332964791252</v>
       </c>
       <c r="D19">
-        <v>1.005150080254281</v>
+        <v>1.045318816665472</v>
       </c>
       <c r="E19">
-        <v>0.9992855931371923</v>
+        <v>1.053630902412519</v>
       </c>
       <c r="F19">
-        <v>1.005597429446173</v>
+        <v>1.063797118299411</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040924132300606</v>
+        <v>1.040494115713985</v>
       </c>
       <c r="J19">
-        <v>1.010308847781117</v>
+        <v>1.052341426027922</v>
       </c>
       <c r="K19">
-        <v>1.018816435204834</v>
+        <v>1.04859685707666</v>
       </c>
       <c r="L19">
-        <v>1.013052059867841</v>
+        <v>1.056881284663775</v>
       </c>
       <c r="M19">
-        <v>1.019256209621091</v>
+        <v>1.067014316686607</v>
       </c>
       <c r="N19">
-        <v>1.011743602229011</v>
+        <v>1.053835871558131</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9795668280295122</v>
+        <v>1.04579420092271</v>
       </c>
       <c r="D20">
-        <v>1.002823833570579</v>
+        <v>1.044920403074537</v>
       </c>
       <c r="E20">
-        <v>0.9965657871706163</v>
+        <v>1.053146524943128</v>
       </c>
       <c r="F20">
-        <v>1.002681173528691</v>
+        <v>1.063272634526237</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039820550387686</v>
+        <v>1.040348095408772</v>
       </c>
       <c r="J20">
-        <v>1.007908789875026</v>
+        <v>1.051925079375897</v>
       </c>
       <c r="K20">
-        <v>1.016817210342626</v>
+        <v>1.048263072927139</v>
       </c>
       <c r="L20">
-        <v>1.010669293064994</v>
+        <v>1.056461236218509</v>
       </c>
       <c r="M20">
-        <v>1.016677041002211</v>
+        <v>1.066553581520429</v>
       </c>
       <c r="N20">
-        <v>1.009340135965403</v>
+        <v>1.053418933646103</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9689855713342064</v>
+        <v>1.044039967865729</v>
       </c>
       <c r="D21">
-        <v>0.9950150354366135</v>
+        <v>1.043622580744017</v>
       </c>
       <c r="E21">
-        <v>0.9874396280260919</v>
+        <v>1.051569666469882</v>
       </c>
       <c r="F21">
-        <v>0.9928981462436347</v>
+        <v>1.061565555919352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036092441425144</v>
+        <v>1.039869967858077</v>
       </c>
       <c r="J21">
-        <v>0.9998397643613798</v>
+        <v>1.050568398589883</v>
       </c>
       <c r="K21">
-        <v>1.010091468969824</v>
+        <v>1.047174579737292</v>
       </c>
       <c r="L21">
-        <v>1.002662932798246</v>
+        <v>1.055092808123558</v>
       </c>
       <c r="M21">
-        <v>1.008015326227603</v>
+        <v>1.065053077198885</v>
       </c>
       <c r="N21">
-        <v>1.001259651509997</v>
+        <v>1.052060326217761</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.962042253637346</v>
+        <v>1.042934920423717</v>
       </c>
       <c r="D22">
-        <v>0.9898998929659196</v>
+        <v>1.042804606997888</v>
       </c>
       <c r="E22">
-        <v>0.9814639624438893</v>
+        <v>1.050576580321163</v>
       </c>
       <c r="F22">
-        <v>0.9864941205128024</v>
+        <v>1.06049072184323</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033632108109143</v>
+        <v>1.039566726725862</v>
       </c>
       <c r="J22">
-        <v>0.994543827502502</v>
+        <v>1.04971298549122</v>
       </c>
       <c r="K22">
-        <v>1.005674125843184</v>
+        <v>1.046487617877103</v>
       </c>
       <c r="L22">
-        <v>0.997411787502031</v>
+        <v>1.054230229941573</v>
       </c>
       <c r="M22">
-        <v>1.002337964950356</v>
+        <v>1.064107608333427</v>
       </c>
       <c r="N22">
-        <v>0.9959561938133268</v>
+        <v>1.05120369833438</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9657523332828126</v>
+        <v>1.043520928664155</v>
       </c>
       <c r="D23">
-        <v>0.9926321766983788</v>
+        <v>1.043238420339804</v>
       </c>
       <c r="E23">
-        <v>0.984655707056964</v>
+        <v>1.05110319349677</v>
       </c>
       <c r="F23">
-        <v>0.989914501618259</v>
+        <v>1.06106065934321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034948016306553</v>
+        <v>1.03972773030168</v>
       </c>
       <c r="J23">
-        <v>0.9973736978424516</v>
+        <v>1.050166687564191</v>
       </c>
       <c r="K23">
-        <v>1.008034785827015</v>
+        <v>1.046852036244767</v>
       </c>
       <c r="L23">
-        <v>1.000217370472714</v>
+        <v>1.054687709388704</v>
       </c>
       <c r="M23">
-        <v>1.00537092397772</v>
+        <v>1.064609015567361</v>
       </c>
       <c r="N23">
-        <v>0.9987900828937499</v>
+        <v>1.051658044716335</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9797396698280493</v>
+        <v>1.045823576182591</v>
       </c>
       <c r="D24">
-        <v>1.00295151343363</v>
+        <v>1.044942128135047</v>
       </c>
       <c r="E24">
-        <v>0.9967150532131244</v>
+        <v>1.053172933785699</v>
       </c>
       <c r="F24">
-        <v>1.002841212347871</v>
+        <v>1.063301228719156</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039881209362912</v>
+        <v>1.040356067042987</v>
       </c>
       <c r="J24">
-        <v>1.008040565375936</v>
+        <v>1.05194778396144</v>
       </c>
       <c r="K24">
-        <v>1.016926994689443</v>
+        <v>1.048281278329747</v>
       </c>
       <c r="L24">
-        <v>1.010800102829054</v>
+        <v>1.056484141487223</v>
       </c>
       <c r="M24">
-        <v>1.016818616154609</v>
+        <v>1.066578703660056</v>
       </c>
       <c r="N24">
-        <v>1.009472098602639</v>
+        <v>1.053441670474763</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9948629184449947</v>
+        <v>1.048486905974857</v>
       </c>
       <c r="D25">
-        <v>1.014136721145137</v>
+        <v>1.046910775536251</v>
       </c>
       <c r="E25">
-        <v>1.009798963424207</v>
+        <v>1.055567832054273</v>
       </c>
       <c r="F25">
-        <v>1.016873539277442</v>
+        <v>1.065894936539809</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04515395690188</v>
+        <v>1.041073898391081</v>
       </c>
       <c r="J25">
-        <v>1.019564411342395</v>
+        <v>1.054004393057292</v>
       </c>
       <c r="K25">
-        <v>1.026519476016895</v>
+        <v>1.04992879138354</v>
       </c>
       <c r="L25">
-        <v>1.022247043986547</v>
+        <v>1.058559505638376</v>
       </c>
       <c r="M25">
-        <v>1.02921544287316</v>
+        <v>1.06885579558631</v>
       </c>
       <c r="N25">
-        <v>1.021012309752174</v>
+        <v>1.055501200191427</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050604470900816</v>
+        <v>1.006174373627423</v>
       </c>
       <c r="D2">
-        <v>1.048474413138584</v>
+        <v>1.02251719894284</v>
       </c>
       <c r="E2">
-        <v>1.057472712464939</v>
+        <v>1.019614861014217</v>
       </c>
       <c r="F2">
-        <v>1.067958870205128</v>
+        <v>1.027407073716797</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041637422615276</v>
+        <v>1.04904506508306</v>
       </c>
       <c r="J2">
-        <v>1.055636745905366</v>
+        <v>1.028171965623195</v>
       </c>
       <c r="K2">
-        <v>1.051234156994763</v>
+        <v>1.033671499325109</v>
       </c>
       <c r="L2">
-        <v>1.060207587508129</v>
+        <v>1.030807529252931</v>
       </c>
       <c r="M2">
-        <v>1.070665336545642</v>
+        <v>1.038497345719121</v>
       </c>
       <c r="N2">
-        <v>1.057135871167779</v>
+        <v>1.029632087747352</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.052138308300811</v>
+        <v>1.014010447246035</v>
       </c>
       <c r="D3">
-        <v>1.049606069174046</v>
+        <v>1.028327983783789</v>
       </c>
       <c r="E3">
-        <v>1.058852907697562</v>
+        <v>1.026429500805705</v>
       </c>
       <c r="F3">
-        <v>1.06945484357063</v>
+        <v>1.034723569345039</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042041416855515</v>
+        <v>1.051708535902343</v>
       </c>
       <c r="J3">
-        <v>1.056817480259296</v>
+        <v>1.034126325784125</v>
       </c>
       <c r="K3">
-        <v>1.052177038821531</v>
+        <v>1.038610792246139</v>
       </c>
       <c r="L3">
-        <v>1.061400187677058</v>
+        <v>1.036735020724858</v>
       </c>
       <c r="M3">
-        <v>1.071975505140764</v>
+        <v>1.04493062700441</v>
       </c>
       <c r="N3">
-        <v>1.058318282299923</v>
+        <v>1.035594903782686</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.053129150234697</v>
+        <v>1.018922929608572</v>
       </c>
       <c r="D4">
-        <v>1.050336659446395</v>
+        <v>1.031972265711826</v>
       </c>
       <c r="E4">
-        <v>1.059744684826229</v>
+        <v>1.030707674889263</v>
       </c>
       <c r="F4">
-        <v>1.070421675341599</v>
+        <v>1.039318522918929</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042300451611387</v>
+        <v>1.053362917401506</v>
       </c>
       <c r="J4">
-        <v>1.057579457470416</v>
+        <v>1.037854665871184</v>
       </c>
       <c r="K4">
-        <v>1.052784900788185</v>
+        <v>1.041699539718589</v>
       </c>
       <c r="L4">
-        <v>1.062170048398261</v>
+        <v>1.040449090278454</v>
       </c>
       <c r="M4">
-        <v>1.072821598403503</v>
+        <v>1.048964483039697</v>
       </c>
       <c r="N4">
-        <v>1.059081341606083</v>
+        <v>1.039328538540315</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.053545312681335</v>
+        <v>1.020952521367668</v>
       </c>
       <c r="D5">
-        <v>1.050643405715632</v>
+        <v>1.033478126673175</v>
       </c>
       <c r="E5">
-        <v>1.060119283027848</v>
+        <v>1.03247655298762</v>
       </c>
       <c r="F5">
-        <v>1.070827860162511</v>
+        <v>1.041218796092266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042408783322482</v>
+        <v>1.054042664674434</v>
       </c>
       <c r="J5">
-        <v>1.057899311260153</v>
+        <v>1.039393881422697</v>
       </c>
       <c r="K5">
-        <v>1.053039913228749</v>
+        <v>1.042973712144369</v>
       </c>
       <c r="L5">
-        <v>1.06249326555715</v>
+        <v>1.041983017377758</v>
       </c>
       <c r="M5">
-        <v>1.073176901933544</v>
+        <v>1.050631168202748</v>
       </c>
       <c r="N5">
-        <v>1.05940164962489</v>
+        <v>1.040869939954461</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.053615165705184</v>
+        <v>1.021291270742244</v>
       </c>
       <c r="D6">
-        <v>1.050694886816022</v>
+        <v>1.033729472478361</v>
       </c>
       <c r="E6">
-        <v>1.060182162027686</v>
+        <v>1.032771864666803</v>
       </c>
       <c r="F6">
-        <v>1.070896044682392</v>
+        <v>1.041536068705238</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04242693954429</v>
+        <v>1.054155894762423</v>
       </c>
       <c r="J6">
-        <v>1.057952988067014</v>
+        <v>1.039650714951131</v>
       </c>
       <c r="K6">
-        <v>1.053082699841102</v>
+        <v>1.043186261308101</v>
       </c>
       <c r="L6">
-        <v>1.062547509968367</v>
+        <v>1.042239003690701</v>
       </c>
       <c r="M6">
-        <v>1.073236536040137</v>
+        <v>1.050909349782976</v>
       </c>
       <c r="N6">
-        <v>1.059455402658973</v>
+        <v>1.041127138215965</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.053134712530007</v>
+        <v>1.018950186287428</v>
       </c>
       <c r="D7">
-        <v>1.05034075974638</v>
+        <v>1.031992488140866</v>
       </c>
       <c r="E7">
-        <v>1.059749691415552</v>
+        <v>1.030731425053458</v>
       </c>
       <c r="F7">
-        <v>1.070427103860039</v>
+        <v>1.039344035623171</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042301901367975</v>
+        <v>1.053372061142867</v>
       </c>
       <c r="J7">
-        <v>1.057583733256458</v>
+        <v>1.037875341612288</v>
       </c>
       <c r="K7">
-        <v>1.052788310364166</v>
+        <v>1.04171665919952</v>
       </c>
       <c r="L7">
-        <v>1.062174368932786</v>
+        <v>1.040469692605188</v>
       </c>
       <c r="M7">
-        <v>1.072826347527042</v>
+        <v>1.048986865744802</v>
       </c>
       <c r="N7">
-        <v>1.059085623464232</v>
+        <v>1.039349243643344</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.051123185814208</v>
+        <v>1.008856713982233</v>
       </c>
       <c r="D8">
-        <v>1.048857209848753</v>
+        <v>1.024505879512416</v>
       </c>
       <c r="E8">
-        <v>1.057939429414015</v>
+        <v>1.021946220190862</v>
       </c>
       <c r="F8">
-        <v>1.068464686553081</v>
+        <v>1.029909763541804</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041774447915589</v>
+        <v>1.049959988477597</v>
       </c>
       <c r="J8">
-        <v>1.056036206099956</v>
+        <v>1.03021108447922</v>
       </c>
       <c r="K8">
-        <v>1.051553276239819</v>
+        <v>1.035363827306016</v>
       </c>
       <c r="L8">
-        <v>1.06061101521409</v>
+        <v>1.032836900424617</v>
       </c>
       <c r="M8">
-        <v>1.071108464601654</v>
+        <v>1.040699274093188</v>
       </c>
       <c r="N8">
-        <v>1.057535898641664</v>
+        <v>1.031674102386044</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047565580851959</v>
+        <v>0.9897500762435485</v>
       </c>
       <c r="D9">
-        <v>1.046230006391515</v>
+        <v>1.010352442197603</v>
       </c>
       <c r="E9">
-        <v>1.054739248530686</v>
+        <v>1.005370422727012</v>
       </c>
       <c r="F9">
-        <v>1.064997426338759</v>
+        <v>1.012123026036476</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040826695685043</v>
+        <v>1.043379522479086</v>
       </c>
       <c r="J9">
-        <v>1.053293386456812</v>
+        <v>1.015670051234926</v>
       </c>
       <c r="K9">
-        <v>1.049359569771282</v>
+        <v>1.023279761854273</v>
       </c>
       <c r="L9">
-        <v>1.057841884269654</v>
+        <v>1.018376965362932</v>
       </c>
       <c r="M9">
-        <v>1.068068224505341</v>
+        <v>1.025022430644479</v>
       </c>
       <c r="N9">
-        <v>1.054789183880021</v>
+        <v>1.017112419206663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045184552260619</v>
+        <v>0.9759481152705031</v>
       </c>
       <c r="D10">
-        <v>1.044469469187934</v>
+        <v>1.000151549834195</v>
       </c>
       <c r="E10">
-        <v>1.052598468925204</v>
+        <v>0.9934420843625777</v>
       </c>
       <c r="F10">
-        <v>1.062679259884803</v>
+        <v>0.9993322502947404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040182392768559</v>
+        <v>1.038548722880621</v>
       </c>
       <c r="J10">
-        <v>1.051453771186619</v>
+        <v>1.005149606887983</v>
       </c>
       <c r="K10">
-        <v>1.047885077785503</v>
+        <v>1.014518068540966</v>
       </c>
       <c r="L10">
-        <v>1.055985792834024</v>
+        <v>1.007930762173724</v>
       </c>
       <c r="M10">
-        <v>1.066032168612211</v>
+        <v>1.013713571644236</v>
       </c>
       <c r="N10">
-        <v>1.052946956145137</v>
+        <v>1.006577034622036</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044151218971464</v>
+        <v>0.9696722893597258</v>
       </c>
       <c r="D11">
-        <v>1.043704912351548</v>
+        <v>0.9955213412838376</v>
       </c>
       <c r="E11">
-        <v>1.051669655545269</v>
+        <v>0.9880311996011958</v>
       </c>
       <c r="F11">
-        <v>1.061673786938309</v>
+        <v>0.993532195737772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039900409912494</v>
+        <v>1.036335212804851</v>
       </c>
       <c r="J11">
-        <v>1.050654483994146</v>
+        <v>1.000363521855316</v>
       </c>
       <c r="K11">
-        <v>1.047243685578825</v>
+        <v>1.010528215690559</v>
       </c>
       <c r="L11">
-        <v>1.055179624828038</v>
+        <v>1.003182415657893</v>
       </c>
       <c r="M11">
-        <v>1.065148252026069</v>
+        <v>1.008577124894296</v>
       </c>
       <c r="N11">
-        <v>1.052146533873171</v>
+        <v>1.00178415279965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043767032370145</v>
+        <v>0.9672914607833878</v>
       </c>
       <c r="D12">
-        <v>1.043420580007409</v>
+        <v>0.9937662974246337</v>
       </c>
       <c r="E12">
-        <v>1.051324367971478</v>
+        <v>0.9859806677175783</v>
       </c>
       <c r="F12">
-        <v>1.061300046529486</v>
+        <v>0.9913344815472475</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039795215772714</v>
+        <v>1.035493083315292</v>
       </c>
       <c r="J12">
-        <v>1.050357176565045</v>
+        <v>0.9985476421030232</v>
       </c>
       <c r="K12">
-        <v>1.04700499804004</v>
+        <v>1.009013907803705</v>
       </c>
       <c r="L12">
-        <v>1.054879799733294</v>
+        <v>1.001381476571219</v>
       </c>
       <c r="M12">
-        <v>1.06481957376906</v>
+        <v>1.006629603827621</v>
       </c>
       <c r="N12">
-        <v>1.051848804233419</v>
+        <v>0.9999656942898246</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043849458183593</v>
+        <v>0.9678044892357532</v>
       </c>
       <c r="D13">
-        <v>1.043481585836305</v>
+        <v>0.9941444077757219</v>
       </c>
       <c r="E13">
-        <v>1.051398446354782</v>
+        <v>0.9864224212110329</v>
       </c>
       <c r="F13">
-        <v>1.061380227159465</v>
+        <v>0.9918079296967691</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039817800829285</v>
+        <v>1.035674653934126</v>
       </c>
       <c r="J13">
-        <v>1.050420968992868</v>
+        <v>0.9989389402937154</v>
       </c>
       <c r="K13">
-        <v>1.047056217604477</v>
+        <v>1.009340243923644</v>
       </c>
       <c r="L13">
-        <v>1.054944130479928</v>
+        <v>1.001769526692933</v>
       </c>
       <c r="M13">
-        <v>1.064890092442986</v>
+        <v>1.007049210139629</v>
       </c>
       <c r="N13">
-        <v>1.051912687253807</v>
+        <v>1.000357548168831</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044119469402884</v>
+        <v>0.9694765330700444</v>
       </c>
       <c r="D14">
-        <v>1.043681416363434</v>
+        <v>0.9953770062863371</v>
       </c>
       <c r="E14">
-        <v>1.051641119827061</v>
+        <v>0.987862555664723</v>
       </c>
       <c r="F14">
-        <v>1.061642898855839</v>
+        <v>0.9933514409261117</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039891723794402</v>
+        <v>1.036266019091815</v>
       </c>
       <c r="J14">
-        <v>1.050629917012035</v>
+        <v>1.000214219991941</v>
       </c>
       <c r="K14">
-        <v>1.047223964724425</v>
+        <v>1.010403719390186</v>
       </c>
       <c r="L14">
-        <v>1.055154848955595</v>
+        <v>1.003034329439095</v>
       </c>
       <c r="M14">
-        <v>1.065121090612274</v>
+        <v>1.008416973101274</v>
       </c>
       <c r="N14">
-        <v>1.052121932003128</v>
+        <v>1.001634638910504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044285784135219</v>
+        <v>0.9704999950168932</v>
       </c>
       <c r="D15">
-        <v>1.043804493047723</v>
+        <v>0.9961316874485229</v>
       </c>
       <c r="E15">
-        <v>1.051790600959124</v>
+        <v>0.9887443569633306</v>
       </c>
       <c r="F15">
-        <v>1.061804704442857</v>
+        <v>0.9942965793738809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039937210032094</v>
+        <v>1.036627684193632</v>
       </c>
       <c r="J15">
-        <v>1.050758601351302</v>
+        <v>1.000994799346957</v>
       </c>
       <c r="K15">
-        <v>1.047327259989865</v>
+        <v>1.011054589446421</v>
       </c>
       <c r="L15">
-        <v>1.055284629192917</v>
+        <v>1.003808578604709</v>
       </c>
       <c r="M15">
-        <v>1.065263369284467</v>
+        <v>1.009254330589635</v>
       </c>
       <c r="N15">
-        <v>1.052250799088917</v>
+        <v>1.002416326777738</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045253081180482</v>
+        <v>0.9763579243928604</v>
       </c>
       <c r="D16">
-        <v>1.04452016271786</v>
+        <v>1.000454091367864</v>
       </c>
       <c r="E16">
-        <v>1.052660071706594</v>
+        <v>0.9937956989975554</v>
       </c>
       <c r="F16">
-        <v>1.062745953419749</v>
+        <v>0.9997113397471971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040201043665866</v>
+        <v>1.03869292626708</v>
       </c>
       <c r="J16">
-        <v>1.05150675924917</v>
+        <v>1.005462099521613</v>
       </c>
       <c r="K16">
-        <v>1.047927582676594</v>
+        <v>1.014778498239502</v>
       </c>
       <c r="L16">
-        <v>1.056039242901818</v>
+        <v>1.008240874797599</v>
       </c>
       <c r="M16">
-        <v>1.066090782288176</v>
+        <v>1.014049114924027</v>
       </c>
       <c r="N16">
-        <v>1.053000019456815</v>
+        <v>1.006889971031049</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045859209475059</v>
+        <v>0.9799491479993004</v>
       </c>
       <c r="D17">
-        <v>1.044968481112859</v>
+        <v>1.00310626203571</v>
       </c>
       <c r="E17">
-        <v>1.053204968870323</v>
+        <v>0.9968959666282674</v>
       </c>
       <c r="F17">
-        <v>1.063335914929201</v>
+        <v>1.003035183907016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040365735375651</v>
+        <v>1.039954714916635</v>
       </c>
       <c r="J17">
-        <v>1.051975324869044</v>
+        <v>1.008200271009014</v>
       </c>
       <c r="K17">
-        <v>1.048303361188105</v>
+        <v>1.017060045555617</v>
       </c>
       <c r="L17">
-        <v>1.056511926008712</v>
+        <v>1.010958640569963</v>
       </c>
       <c r="M17">
-        <v>1.066609177562055</v>
+        <v>1.016990203825755</v>
       </c>
       <c r="N17">
-        <v>1.053469250493614</v>
+        <v>1.009632031036034</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046212529526468</v>
+        <v>0.9820153039845966</v>
       </c>
       <c r="D18">
-        <v>1.045229762674002</v>
+        <v>1.004632897007807</v>
       </c>
       <c r="E18">
-        <v>1.053522621031686</v>
+        <v>0.9986808606298686</v>
       </c>
       <c r="F18">
-        <v>1.063679866885929</v>
+        <v>1.004948988423497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040461508459696</v>
+        <v>1.040679071001392</v>
       </c>
       <c r="J18">
-        <v>1.052248369191538</v>
+        <v>1.00977540255747</v>
       </c>
       <c r="K18">
-        <v>1.048522264395468</v>
+        <v>1.018372136946232</v>
       </c>
       <c r="L18">
-        <v>1.056787396441926</v>
+        <v>1.012522403052986</v>
       </c>
       <c r="M18">
-        <v>1.06691132826206</v>
+        <v>1.018682839206469</v>
       </c>
       <c r="N18">
-        <v>1.053742682570365</v>
+        <v>1.01120939945196</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046332964791252</v>
+        <v>0.9827151005101131</v>
       </c>
       <c r="D19">
-        <v>1.045318816665472</v>
+        <v>1.005150080254282</v>
       </c>
       <c r="E19">
-        <v>1.053630902412519</v>
+        <v>0.9992855931371937</v>
       </c>
       <c r="F19">
-        <v>1.063797118299411</v>
+        <v>1.005597429446174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040494115713985</v>
+        <v>1.040924132300606</v>
       </c>
       <c r="J19">
-        <v>1.052341426027922</v>
+        <v>1.010308847781119</v>
       </c>
       <c r="K19">
-        <v>1.04859685707666</v>
+        <v>1.018816435204835</v>
       </c>
       <c r="L19">
-        <v>1.056881284663775</v>
+        <v>1.013052059867842</v>
       </c>
       <c r="M19">
-        <v>1.067014316686607</v>
+        <v>1.019256209621092</v>
       </c>
       <c r="N19">
-        <v>1.053835871558131</v>
+        <v>1.011743602229012</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04579420092271</v>
+        <v>0.9795668280295126</v>
       </c>
       <c r="D20">
-        <v>1.044920403074537</v>
+        <v>1.002823833570579</v>
       </c>
       <c r="E20">
-        <v>1.053146524943128</v>
+        <v>0.9965657871706165</v>
       </c>
       <c r="F20">
-        <v>1.063272634526237</v>
+        <v>1.002681173528691</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040348095408772</v>
+        <v>1.039820550387687</v>
       </c>
       <c r="J20">
-        <v>1.051925079375897</v>
+        <v>1.007908789875026</v>
       </c>
       <c r="K20">
-        <v>1.048263072927139</v>
+        <v>1.016817210342627</v>
       </c>
       <c r="L20">
-        <v>1.056461236218509</v>
+        <v>1.010669293064994</v>
       </c>
       <c r="M20">
-        <v>1.066553581520429</v>
+        <v>1.016677041002211</v>
       </c>
       <c r="N20">
-        <v>1.053418933646103</v>
+        <v>1.009340135965403</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044039967865729</v>
+        <v>0.9689855713342079</v>
       </c>
       <c r="D21">
-        <v>1.043622580744017</v>
+        <v>0.9950150354366145</v>
       </c>
       <c r="E21">
-        <v>1.051569666469882</v>
+        <v>0.9874396280260934</v>
       </c>
       <c r="F21">
-        <v>1.061565555919352</v>
+        <v>0.9928981462436363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039869967858077</v>
+        <v>1.036092441425144</v>
       </c>
       <c r="J21">
-        <v>1.050568398589883</v>
+        <v>0.9998397643613812</v>
       </c>
       <c r="K21">
-        <v>1.047174579737292</v>
+        <v>1.010091468969825</v>
       </c>
       <c r="L21">
-        <v>1.055092808123558</v>
+        <v>1.002662932798248</v>
       </c>
       <c r="M21">
-        <v>1.065053077198885</v>
+        <v>1.008015326227605</v>
       </c>
       <c r="N21">
-        <v>1.052060326217761</v>
+        <v>1.001259651509998</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042934920423717</v>
+        <v>0.962042253637345</v>
       </c>
       <c r="D22">
-        <v>1.042804606997888</v>
+        <v>0.9898998929659187</v>
       </c>
       <c r="E22">
-        <v>1.050576580321163</v>
+        <v>0.9814639624438886</v>
       </c>
       <c r="F22">
-        <v>1.06049072184323</v>
+        <v>0.9864941205128021</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039566726725862</v>
+        <v>1.033632108109142</v>
       </c>
       <c r="J22">
-        <v>1.04971298549122</v>
+        <v>0.9945438275025011</v>
       </c>
       <c r="K22">
-        <v>1.046487617877103</v>
+        <v>1.005674125843184</v>
       </c>
       <c r="L22">
-        <v>1.054230229941573</v>
+        <v>0.9974117875020304</v>
       </c>
       <c r="M22">
-        <v>1.064107608333427</v>
+        <v>1.002337964950355</v>
       </c>
       <c r="N22">
-        <v>1.05120369833438</v>
+        <v>0.9959561938133261</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043520928664155</v>
+        <v>0.9657523332828132</v>
       </c>
       <c r="D23">
-        <v>1.043238420339804</v>
+        <v>0.992632176698379</v>
       </c>
       <c r="E23">
-        <v>1.05110319349677</v>
+        <v>0.9846557070569638</v>
       </c>
       <c r="F23">
-        <v>1.06106065934321</v>
+        <v>0.9899145016182589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03972773030168</v>
+        <v>1.034948016306553</v>
       </c>
       <c r="J23">
-        <v>1.050166687564191</v>
+        <v>0.9973736978424518</v>
       </c>
       <c r="K23">
-        <v>1.046852036244767</v>
+        <v>1.008034785827016</v>
       </c>
       <c r="L23">
-        <v>1.054687709388704</v>
+        <v>1.000217370472714</v>
       </c>
       <c r="M23">
-        <v>1.064609015567361</v>
+        <v>1.00537092397772</v>
       </c>
       <c r="N23">
-        <v>1.051658044716335</v>
+        <v>0.9987900828937503</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045823576182591</v>
+        <v>0.9797396698280489</v>
       </c>
       <c r="D24">
-        <v>1.044942128135047</v>
+        <v>1.00295151343363</v>
       </c>
       <c r="E24">
-        <v>1.053172933785699</v>
+        <v>0.9967150532131244</v>
       </c>
       <c r="F24">
-        <v>1.063301228719156</v>
+        <v>1.002841212347871</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040356067042987</v>
+        <v>1.039881209362912</v>
       </c>
       <c r="J24">
-        <v>1.05194778396144</v>
+        <v>1.008040565375936</v>
       </c>
       <c r="K24">
-        <v>1.048281278329747</v>
+        <v>1.016926994689443</v>
       </c>
       <c r="L24">
-        <v>1.056484141487223</v>
+        <v>1.010800102829054</v>
       </c>
       <c r="M24">
-        <v>1.066578703660056</v>
+        <v>1.016818616154609</v>
       </c>
       <c r="N24">
-        <v>1.053441670474763</v>
+        <v>1.009472098602639</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048486905974857</v>
+        <v>0.9948629184449952</v>
       </c>
       <c r="D25">
-        <v>1.046910775536251</v>
+        <v>1.014136721145138</v>
       </c>
       <c r="E25">
-        <v>1.055567832054273</v>
+        <v>1.009798963424207</v>
       </c>
       <c r="F25">
-        <v>1.065894936539809</v>
+        <v>1.016873539277442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041073898391081</v>
+        <v>1.04515395690188</v>
       </c>
       <c r="J25">
-        <v>1.054004393057292</v>
+        <v>1.019564411342395</v>
       </c>
       <c r="K25">
-        <v>1.04992879138354</v>
+        <v>1.026519476016896</v>
       </c>
       <c r="L25">
-        <v>1.058559505638376</v>
+        <v>1.022247043986547</v>
       </c>
       <c r="M25">
-        <v>1.06885579558631</v>
+        <v>1.02921544287316</v>
       </c>
       <c r="N25">
-        <v>1.055501200191427</v>
+        <v>1.021012309752174</v>
       </c>
     </row>
   </sheetData>
